--- a/src/test/resources/data/jdgroupTA667.xlsx
+++ b/src/test/resources/data/jdgroupTA667.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799A13E-6AB7-4436-B076-5FA7E911B92A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B20332-346D-4BE1-8A9B-3421A171DF4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6199" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6197" uniqueCount="1122">
   <si>
     <t>testSuitID</t>
   </si>
@@ -4613,17 +4613,7 @@
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="460">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="459">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9736,7 +9726,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10019,19 +10009,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="305" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="304" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="304" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="303" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="303" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="302" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="302" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="301" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="301" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="300" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -11089,10 +11079,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="300" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="299" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="299" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="298" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -11163,16 +11153,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="duplicateValues" dxfId="298" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="297" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="297" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="296" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="295" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -11243,10 +11233,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="294" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="293" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="169"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -11378,13 +11368,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="292" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="291" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="290" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
@@ -11439,10 +11429,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="289" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="288" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -11496,10 +11486,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="287" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="286" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11595,7 +11585,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="285" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -11663,10 +11653,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="284" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="283" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
@@ -11682,10 +11672,10 @@
   <dimension ref="A1:AJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W89" sqref="W89"/>
+      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15672,133 +15662,133 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="459" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="458" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="458" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="457" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="457" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="456" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="456" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="455" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="455" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="454" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="454" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="453" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="453" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="452" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="452" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="451" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="451" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="450" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="450" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="449" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="duplicateValues" dxfId="449" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="448" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="duplicateValues" dxfId="448" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="447" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="duplicateValues" dxfId="447" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="446" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="duplicateValues" dxfId="446" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="445" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="duplicateValues" dxfId="445" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="444" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="duplicateValues" dxfId="444" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="443" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="duplicateValues" dxfId="443" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="442" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="duplicateValues" dxfId="442" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="441" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="duplicateValues" dxfId="441" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="440" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="duplicateValues" dxfId="440" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="439" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="duplicateValues" dxfId="439" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="438" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="duplicateValues" dxfId="438" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="437" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:B1048576 B81:B84 B33:B49 B1:B31 B55:B75">
-    <cfRule type="duplicateValues" dxfId="437" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="duplicateValues" dxfId="436" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="duplicateValues" dxfId="435" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="duplicateValues" dxfId="434" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="433" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="432" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="duplicateValues" dxfId="432" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:B92">
-    <cfRule type="duplicateValues" dxfId="431" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="430" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:D91">
-    <cfRule type="duplicateValues" dxfId="429" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="duplicateValues" dxfId="428" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="duplicateValues" dxfId="427" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="426" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="duplicateValues" dxfId="426" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="duplicateValues" dxfId="425" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="duplicateValues" dxfId="424" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="duplicateValues" dxfId="423" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:I91">
-    <cfRule type="duplicateValues" dxfId="422" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="421" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="duplicateValues" dxfId="421" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="duplicateValues" dxfId="420" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98:I98">
-    <cfRule type="duplicateValues" dxfId="419" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99">
-    <cfRule type="duplicateValues" dxfId="418" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100">
-    <cfRule type="duplicateValues" dxfId="417" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
@@ -16128,7 +16118,6 @@
     <hyperlink ref="AB100" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{A564FB92-104E-408B-B537-A2FA9C1772A2}"/>
     <hyperlink ref="Q100" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{4BA99015-4300-4ABB-869E-4D13D47C1D74}"/>
     <hyperlink ref="Z100" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{91885D41-352F-4F3C-B5E0-524E29E72C45}"/>
-    <hyperlink ref="Y100" location="'ic_Magento_LaunchPortal++'!A1" display="ic_Magento_LaunchPortal++" xr:uid="{94F04F4D-0B1F-4704-8B85-AFF04BEC29FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16717,7 +16706,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="duplicateValues" dxfId="282" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{00000000-0002-0000-0E00-000000000000}">
@@ -16919,22 +16908,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:A7">
-    <cfRule type="duplicateValues" dxfId="281" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="280" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="279" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A12">
-    <cfRule type="duplicateValues" dxfId="278" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="277" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="276" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
@@ -17160,25 +17149,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="duplicateValues" dxfId="275" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="274" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="273" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="272" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="271" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="270" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="269" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
@@ -17842,40 +17831,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B15">
-    <cfRule type="duplicateValues" dxfId="268" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B25">
-    <cfRule type="duplicateValues" dxfId="267" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="duplicateValues" dxfId="266" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="265" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="264" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A41">
-    <cfRule type="duplicateValues" dxfId="263" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="262" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="261" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="duplicateValues" dxfId="260" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="259" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="258" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31">
-    <cfRule type="duplicateValues" dxfId="257" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
@@ -17886,14 +17875,14 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -18563,54 +18552,37 @@
         <v>776</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="58">
-        <v>99</v>
-      </c>
-      <c r="B48" s="110" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C48" s="97">
-        <v>2</v>
-      </c>
-      <c r="D48" s="97" t="s">
-        <v>776</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B33:B35">
-    <cfRule type="duplicateValues" dxfId="256" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="255" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="254" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A32">
-    <cfRule type="duplicateValues" dxfId="253" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="duplicateValues" dxfId="252" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="251" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B44">
-    <cfRule type="duplicateValues" dxfId="250" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="249" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="248" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="247" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="246" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
@@ -18829,8 +18801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC77"/>
   <sheetViews>
-    <sheetView topLeftCell="E41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="B50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20843,7 +20815,7 @@
         <v>193</v>
       </c>
       <c r="F51" s="110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" s="139" t="s">
         <v>971</v>
@@ -22139,157 +22111,157 @@
   </sheetData>
   <autoFilter ref="A1:U76" xr:uid="{55D3BFCF-5BB2-4597-90AF-71155E0BCD4E}"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="416" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="415" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="414" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="414" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D7">
-    <cfRule type="duplicateValues" dxfId="413" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="412" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="411" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="410" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="409" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13 D15:D23">
-    <cfRule type="duplicateValues" dxfId="408" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="407" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D32">
-    <cfRule type="duplicateValues" dxfId="407" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B32">
-    <cfRule type="duplicateValues" dxfId="406" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D37">
-    <cfRule type="duplicateValues" dxfId="405" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B37">
-    <cfRule type="duplicateValues" dxfId="404" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="403" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="402" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B42">
-    <cfRule type="duplicateValues" dxfId="401" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="400" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="400" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="399" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="399" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="398" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="397" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="397" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="396" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="396" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="395" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="395" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="394" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B55">
-    <cfRule type="duplicateValues" dxfId="394" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="393" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="duplicateValues" dxfId="393" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="392" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="duplicateValues" dxfId="392" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="391" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="391" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="390" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="390" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="389" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="duplicateValues" dxfId="389" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="388" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="388" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="387" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="duplicateValues" dxfId="387" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="386" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="386" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="385" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="385" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="384" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="384" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="383" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="383" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="382" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="382" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="381" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="381" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="380" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B75">
-    <cfRule type="duplicateValues" dxfId="380" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="379" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:D75">
-    <cfRule type="duplicateValues" dxfId="379" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="378" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="378" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="377" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="377" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="376" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="duplicateValues" dxfId="376" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="375" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B51">
-    <cfRule type="duplicateValues" dxfId="375" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="374" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G50 I47:I50">
-    <cfRule type="duplicateValues" dxfId="374" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="373" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="373" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="372" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D50">
-    <cfRule type="duplicateValues" dxfId="372" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="371" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H52">
-    <cfRule type="duplicateValues" dxfId="371" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="370" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="duplicateValues" dxfId="370" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="369" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="duplicateValues" dxfId="369" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="368" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="368" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="367" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="duplicateValues" dxfId="367" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="366" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77 I77">
-    <cfRule type="duplicateValues" dxfId="366" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="365" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -24090,9 +24062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:B60"/>
-    </sheetView>
+    <sheetView topLeftCell="A38" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -24945,55 +24915,55 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B49:B52 B29:B44 B18:B23 B2:B16">
-    <cfRule type="duplicateValues" dxfId="329" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="364" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="328" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="363" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28">
-    <cfRule type="duplicateValues" dxfId="327" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="362" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B26">
-    <cfRule type="duplicateValues" dxfId="326" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="361" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="325" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="360" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="324" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="359" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="323" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="358" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="322" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="357" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="321" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="356" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="duplicateValues" dxfId="320" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="355" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="duplicateValues" dxfId="319" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="354" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="duplicateValues" dxfId="318" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="353" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="317" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="352" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="316" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="351" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A56">
-    <cfRule type="duplicateValues" dxfId="315" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="350" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="duplicateValues" dxfId="314" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="313" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1500-000000000000}">
@@ -29365,7 +29335,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -30219,109 +30189,109 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="365" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="364" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="363" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="362" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="361" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="343" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B27">
-    <cfRule type="duplicateValues" dxfId="360" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="359" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="358" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule type="duplicateValues" dxfId="357" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="356" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="355" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="354" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="336" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="353" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="335" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="352" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="334" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="351" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="333" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="350" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="332" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B41">
-    <cfRule type="duplicateValues" dxfId="349" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="331" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="348" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="330" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="347" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="329" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="346" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="328" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="345" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="327" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="344" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="326" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="343" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="325" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="342" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="324" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="341" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="323" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="340" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="322" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="339" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="321" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="338" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="320" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="duplicateValues" dxfId="337" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="319" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="336" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="318" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="335" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="317" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="duplicateValues" dxfId="334" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="316" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="duplicateValues" dxfId="333" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="315" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="duplicateValues" dxfId="332" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="314" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="331" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="313" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
@@ -33263,7 +33233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -34617,27 +34589,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A71100-FB28-4B9C-8331-10A3C28DEA1A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:4" s="104" customFormat="1">
+      <c r="A1" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="76" t="s">
         <v>936</v>
       </c>
     </row>
@@ -34657,7 +34631,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="330" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="312" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E6F3564F-D933-409A-AA57-7297F21318DB}">
@@ -34665,7 +34639,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{80B7AEAD-729B-462C-8C26-053DED507A5C}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{4DEF8F13-6343-49D1-B03F-63C4D687CB12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41049,19 +41023,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="312" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="311" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="311" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="310" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="310" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="309" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="309" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="308" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="308" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="307" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -43879,10 +43853,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="307" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="306" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="306" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="305" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
